--- a/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
+++ b/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git-Repository\PRY-CC\docs\bio metric integration estimation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="10320" windowHeight="5460"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Image Quality Check</t>
   </si>
@@ -155,14 +150,26 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Dev Completed</t>
+  </si>
+  <si>
+    <t>UT Completed</t>
+  </si>
+  <si>
+    <t>AT Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,10 +353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,14 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -575,12 +580,12 @@
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="21">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -609,7 +614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -620,7 +625,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -636,7 +641,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -647,7 +652,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -683,7 +688,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -694,7 +699,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -717,7 +722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -730,7 +735,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -741,7 +746,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -761,10 +766,10 @@
         <v>42213</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -790,10 +795,10 @@
         <v>42213</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -816,13 +821,13 @@
         <v>42213</v>
       </c>
       <c r="H16" s="10">
-        <v>42213</v>
+        <v>42214</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -833,7 +838,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -846,11 +851,17 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="10">
+        <v>42209</v>
+      </c>
+      <c r="H18" s="10">
+        <v>42209</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -876,10 +887,10 @@
         <v>42212</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -905,10 +916,10 @@
         <v>42209</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -919,7 +930,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -932,11 +943,17 @@
       <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="10">
+        <v>42209</v>
+      </c>
+      <c r="H22" s="10">
+        <v>42209</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -947,7 +964,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -960,11 +977,17 @@
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="10">
+        <v>42213</v>
+      </c>
+      <c r="H24" s="10">
+        <v>42213</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -983,11 +1006,17 @@
       <c r="F25" s="4">
         <v>12</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="10">
+        <v>42214</v>
+      </c>
+      <c r="H25" s="10">
+        <v>42214</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -998,7 +1027,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1011,11 +1040,17 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="10">
+        <v>42219</v>
+      </c>
+      <c r="H27" s="10">
+        <v>42219</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1026,7 +1061,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1037,11 +1072,17 @@
       <c r="F29" s="4">
         <v>18</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="10">
+        <v>42214</v>
+      </c>
+      <c r="H29" s="10">
+        <v>42215</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1052,7 +1093,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1063,7 +1104,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1120,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1090,7 +1131,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1144,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1122,11 +1163,17 @@
       <c r="F35" s="4">
         <v>12</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="10">
+        <v>42220</v>
+      </c>
+      <c r="H35" s="10">
+        <v>42220</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
@@ -1145,11 +1192,17 @@
       <c r="F36" s="4">
         <v>12</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="10">
+        <v>42220</v>
+      </c>
+      <c r="H36" s="10">
+        <v>42220</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1160,7 +1213,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1226,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1192,11 +1245,17 @@
       <c r="F39" s="4">
         <v>12</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="10">
+        <v>42219</v>
+      </c>
+      <c r="H39" s="10">
+        <v>42219</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1207,7 +1266,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
@@ -1220,11 +1279,17 @@
       <c r="F41" s="4">
         <v>2</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="10">
+        <v>42221</v>
+      </c>
+      <c r="H41" s="10">
+        <v>42221</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>24</v>
       </c>
@@ -1243,11 +1308,17 @@
       <c r="F42" s="4">
         <v>12</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="10">
+        <v>42221</v>
+      </c>
+      <c r="H42" s="10">
+        <v>42221</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1258,7 +1329,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -1271,11 +1342,17 @@
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="10">
+        <v>42222</v>
+      </c>
+      <c r="H44" s="10">
+        <v>42222</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1286,7 +1363,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1297,11 +1374,17 @@
       <c r="F46" s="4">
         <v>9</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="10">
+        <v>42221</v>
+      </c>
+      <c r="H46" s="10">
+        <v>42222</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1312,7 +1395,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1410,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1338,7 +1421,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1351,11 +1434,17 @@
       <c r="F50" s="4">
         <v>2</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="10">
+        <v>42223</v>
+      </c>
+      <c r="H50" s="10">
+        <v>42223</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1457,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1379,7 +1468,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1481,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -1411,11 +1500,17 @@
       <c r="F54" s="4">
         <v>12</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="10">
+        <v>42223</v>
+      </c>
+      <c r="H54" s="10">
+        <v>42223</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
@@ -1434,11 +1529,17 @@
       <c r="F55" s="4">
         <v>12</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="10">
+        <v>42223</v>
+      </c>
+      <c r="H55" s="10">
+        <v>42226</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1449,7 +1550,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1563,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>37</v>
       </c>
@@ -1481,11 +1582,17 @@
       <c r="F58" s="4">
         <v>14</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="10">
+        <v>42226</v>
+      </c>
+      <c r="H58" s="10">
+        <v>42226</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1496,7 +1603,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -1507,11 +1614,17 @@
       <c r="F60" s="4">
         <v>2</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="10">
+        <v>42228</v>
+      </c>
+      <c r="H60" s="10">
+        <v>42228</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1522,7 +1635,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
@@ -1533,11 +1646,17 @@
       <c r="F62" s="4">
         <v>9</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="10">
+        <v>42227</v>
+      </c>
+      <c r="H62" s="10">
+        <v>42227</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1548,7 +1667,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
@@ -1559,22 +1678,36 @@
       <c r="F64" s="4">
         <v>9</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="G64" s="10">
+        <v>42229</v>
+      </c>
+      <c r="H64" s="10">
+        <v>42229</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="10">
+        <v>42230</v>
+      </c>
+      <c r="H65" s="10">
+        <v>42235</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="8" t="s">
         <v>39</v>
       </c>
@@ -1589,7 +1722,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1600,7 +1733,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1611,7 +1744,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1622,7 +1755,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1633,7 +1766,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1651,24 +1784,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
+++ b/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="10320" windowHeight="5460"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Image Quality Check</t>
   </si>
@@ -163,13 +163,16 @@
   </si>
   <si>
     <t>AT Testing</t>
+  </si>
+  <si>
+    <t>a. Write getNewUser() method.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +356,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -387,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -580,12 +585,12 @@
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -614,7 +619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -625,7 +630,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -641,7 +646,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -652,7 +657,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -675,7 +680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -688,7 +693,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -699,7 +704,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -722,7 +727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -735,7 +740,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -746,7 +751,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -769,7 +774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -798,7 +803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -827,7 +832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -838,7 +843,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -861,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -890,7 +895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -919,7 +924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -930,7 +935,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -953,7 +958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -964,7 +969,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -987,7 +992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1027,7 +1032,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1061,7 +1066,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1093,7 +1098,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1104,7 +1109,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1125,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1131,7 +1136,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1149,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1170,10 +1175,10 @@
         <v>42220</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
@@ -1199,10 +1204,10 @@
         <v>42220</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1213,7 +1218,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1231,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1252,10 +1257,10 @@
         <v>42219</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1266,7 +1271,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
@@ -1286,12 +1291,12 @@
         <v>42221</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4">
         <v>4</v>
@@ -1315,10 +1320,10 @@
         <v>42221</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1329,7 +1334,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1363,7 +1368,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1381,10 +1386,10 @@
         <v>42222</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1395,7 +1400,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1415,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1421,7 +1426,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1462,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1468,7 +1473,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1486,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1550,7 +1555,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1603,7 +1608,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1635,7 +1640,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1667,7 +1672,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>9</v>
       </c>
@@ -1685,10 +1690,10 @@
         <v>42229</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>39</v>
       </c>
@@ -1722,7 +1727,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1733,7 +1738,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1744,7 +1749,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1755,7 +1760,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1766,7 +1771,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1784,24 +1789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
+++ b/docs/bio metric integration estimation/MDI_Middleware_Timelines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Image Quality Check</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Timelines --&gt;</t>
   </si>
   <si>
-    <t>Submit/Enroll User</t>
-  </si>
-  <si>
     <t>Configuration</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Dev Completed</t>
   </si>
   <si>
@@ -166,6 +160,9 @@
   </si>
   <si>
     <t>a. Write getNewUser() method.</t>
+  </si>
+  <si>
+    <t>Submit User</t>
   </si>
 </sst>
 </file>
@@ -570,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,16 +604,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -659,7 +656,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -677,12 +674,12 @@
         <v>42209</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -706,7 +703,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -724,12 +721,12 @@
         <v>42209</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -753,7 +750,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -771,12 +768,12 @@
         <v>42213</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -800,12 +797,12 @@
         <v>42213</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>4</v>
@@ -829,7 +826,7 @@
         <v>42214</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -845,7 +842,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -863,12 +860,12 @@
         <v>42209</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -892,12 +889,12 @@
         <v>42212</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
@@ -921,7 +918,7 @@
         <v>42209</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,7 +934,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -955,7 +952,7 @@
         <v>42209</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -971,7 +968,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
@@ -989,12 +986,12 @@
         <v>42213</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>4</v>
@@ -1018,7 +1015,7 @@
         <v>42214</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,7 +1031,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
@@ -1052,7 +1049,7 @@
         <v>42219</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,7 +1065,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1084,7 +1081,7 @@
         <v>42215</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1138,7 +1135,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1151,7 +1148,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
@@ -1175,12 +1172,12 @@
         <v>42220</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4">
         <v>4</v>
@@ -1204,7 +1201,7 @@
         <v>42220</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,7 +1217,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1233,7 +1230,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4">
         <v>4</v>
@@ -1257,7 +1254,7 @@
         <v>42219</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="4">
         <v>2</v>
@@ -1291,12 +1288,12 @@
         <v>42221</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4">
         <v>4</v>
@@ -1320,7 +1317,7 @@
         <v>42221</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,7 +1333,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -1354,7 +1351,7 @@
         <v>42222</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1370,7 +1367,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1386,7 +1383,7 @@
         <v>42222</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,7 +1399,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="4">
         <v>2</v>
@@ -1446,12 +1443,12 @@
         <v>42223</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1488,7 +1485,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="4">
         <v>4</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4">
         <v>4</v>
@@ -1557,7 +1554,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="4">
         <v>6</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1626,7 +1623,7 @@
         <v>42228</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -1642,7 +1639,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1658,7 +1655,7 @@
         <v>42227</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,7 +1671,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1690,12 +1687,12 @@
         <v>42229</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1709,12 +1706,12 @@
         <v>42235</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
